--- a/tests/indicators/E-K/Ema/Ema.Calc.xlsx
+++ b/tests/indicators/E-K/Ema/Ema.Calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C5C53F-DB6F-4E95-A551-F71FB0E2E579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB686E6F-67CE-4B5C-8A70-FFABE87B19EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24780" yWindow="0" windowWidth="19065" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
